--- a/Stuff/Info/DAC_freq.xlsx
+++ b/Stuff/Info/DAC_freq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\WOLF\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\WOLF\Stuff\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,6 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,13 +481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -496,10 +496,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,9 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -811,24 +812,24 @@
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27">
-        <f>48000*3920/1000000</f>
-        <v>188.16</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="32">
+        <f>48000*3904/1000000</f>
+        <v>187.392</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23">
         <f>C2/2</f>
-        <v>94.08</v>
+        <v>93.695999999999998</v>
       </c>
       <c r="L2" s="23">
         <f>K2*2</f>
-        <v>188.16</v>
+        <v>187.392</v>
       </c>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
@@ -837,18 +838,18 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
@@ -869,27 +870,27 @@
       </c>
       <c r="D4" s="10">
         <f>C2*0.4</f>
-        <v>75.263999999999996</v>
-      </c>
-      <c r="E4" s="33">
+        <v>74.956800000000001</v>
+      </c>
+      <c r="E4" s="27">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="28">
         <f>D4</f>
-        <v>75.263999999999996</v>
+        <v>74.956800000000001</v>
       </c>
       <c r="G4" s="8">
         <f>F4</f>
-        <v>75.263999999999996</v>
+        <v>74.956800000000001</v>
       </c>
       <c r="H4" s="3">
         <f>E5</f>
-        <v>112.896</v>
+        <v>112.43519999999999</v>
       </c>
       <c r="I4" s="12">
         <f>(G4+H4)/2</f>
-        <v>94.08</v>
+        <v>93.695999999999998</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -905,31 +906,31 @@
       </c>
       <c r="C5" s="8">
         <f>C2*0.2</f>
-        <v>37.631999999999998</v>
+        <v>37.478400000000001</v>
       </c>
       <c r="D5" s="10">
         <f>C2*0.4</f>
-        <v>75.263999999999996</v>
-      </c>
-      <c r="E5" s="33">
+        <v>74.956800000000001</v>
+      </c>
+      <c r="E5" s="27">
         <f>C2-D5</f>
-        <v>112.896</v>
-      </c>
-      <c r="F5" s="34">
+        <v>112.43519999999999</v>
+      </c>
+      <c r="F5" s="28">
         <f>C2-C5</f>
-        <v>150.52799999999999</v>
+        <v>149.9136</v>
       </c>
       <c r="G5" s="8">
         <f>F5</f>
-        <v>150.52799999999999</v>
+        <v>149.9136</v>
       </c>
       <c r="H5" s="3">
         <f>E6</f>
-        <v>225.792</v>
+        <v>224.87039999999999</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" ref="I5:I6" si="0">(G5+H5)/2</f>
-        <v>188.16</v>
+        <v>187.392</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -945,31 +946,31 @@
       </c>
       <c r="C6" s="8">
         <f>C2*0.2</f>
-        <v>37.631999999999998</v>
+        <v>37.478400000000001</v>
       </c>
       <c r="D6" s="10">
         <f>C2*0.4</f>
-        <v>75.263999999999996</v>
+        <v>74.956800000000001</v>
       </c>
       <c r="E6" s="8">
         <f>C2+C6</f>
-        <v>225.792</v>
+        <v>224.87039999999999</v>
       </c>
       <c r="F6" s="3">
         <f>C2+D6</f>
-        <v>263.42399999999998</v>
+        <v>262.34879999999998</v>
       </c>
       <c r="G6" s="8">
         <f>F6</f>
-        <v>263.42399999999998</v>
+        <v>262.34879999999998</v>
       </c>
       <c r="H6" s="3">
         <f>E7</f>
-        <v>301.05599999999998</v>
+        <v>299.8272</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>282.24</v>
+        <v>281.08799999999997</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -988,15 +989,15 @@
       </c>
       <c r="D7" s="11">
         <f>C2*0.4</f>
-        <v>75.263999999999996</v>
+        <v>74.956800000000001</v>
       </c>
       <c r="E7" s="9">
         <f>C2*2-D7</f>
-        <v>301.05599999999998</v>
+        <v>299.8272</v>
       </c>
       <c r="F7" s="4">
         <f>C2*2-C7</f>
-        <v>376.32</v>
+        <v>374.78399999999999</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>

--- a/Stuff/Info/DAC_freq.xlsx
+++ b/Stuff/Info/DAC_freq.xlsx
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -487,6 +487,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,15 +503,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -787,7 +787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -812,16 +814,16 @@
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <f>48000*3904/1000000</f>
         <v>187.392</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23">
         <f>C2/2</f>
@@ -838,18 +840,18 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="14" t="s">
         <v>8</v>
       </c>

--- a/Stuff/Info/DAC_freq.xlsx
+++ b/Stuff/Info/DAC_freq.xlsx
@@ -815,8 +815,8 @@
         <v>4</v>
       </c>
       <c r="C2" s="29">
-        <f>48000*3904/1000000</f>
-        <v>187.392</v>
+        <f>48000*3920/1000000</f>
+        <v>188.16</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -827,11 +827,11 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23">
         <f>C2/2</f>
-        <v>93.695999999999998</v>
+        <v>94.08</v>
       </c>
       <c r="L2" s="23">
         <f>K2*2</f>
-        <v>187.392</v>
+        <v>188.16</v>
       </c>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="D4" s="10">
         <f>C2*0.4</f>
-        <v>74.956800000000001</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="E4" s="27">
         <f>C4</f>
@@ -880,19 +880,19 @@
       </c>
       <c r="F4" s="28">
         <f>D4</f>
-        <v>74.956800000000001</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="G4" s="8">
         <f>F4</f>
-        <v>74.956800000000001</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="H4" s="3">
         <f>E5</f>
-        <v>112.43519999999999</v>
+        <v>112.896</v>
       </c>
       <c r="I4" s="12">
         <f>(G4+H4)/2</f>
-        <v>93.695999999999998</v>
+        <v>94.08</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -908,31 +908,31 @@
       </c>
       <c r="C5" s="8">
         <f>C2*0.2</f>
-        <v>37.478400000000001</v>
+        <v>37.631999999999998</v>
       </c>
       <c r="D5" s="10">
         <f>C2*0.4</f>
-        <v>74.956800000000001</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="E5" s="27">
         <f>C2-D5</f>
-        <v>112.43519999999999</v>
+        <v>112.896</v>
       </c>
       <c r="F5" s="28">
         <f>C2-C5</f>
-        <v>149.9136</v>
+        <v>150.52799999999999</v>
       </c>
       <c r="G5" s="8">
         <f>F5</f>
-        <v>149.9136</v>
+        <v>150.52799999999999</v>
       </c>
       <c r="H5" s="3">
         <f>E6</f>
-        <v>224.87039999999999</v>
+        <v>225.792</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" ref="I5:I6" si="0">(G5+H5)/2</f>
-        <v>187.392</v>
+        <v>188.16</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -948,31 +948,31 @@
       </c>
       <c r="C6" s="8">
         <f>C2*0.2</f>
-        <v>37.478400000000001</v>
+        <v>37.631999999999998</v>
       </c>
       <c r="D6" s="10">
         <f>C2*0.4</f>
-        <v>74.956800000000001</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="E6" s="8">
         <f>C2+C6</f>
-        <v>224.87039999999999</v>
+        <v>225.792</v>
       </c>
       <c r="F6" s="3">
         <f>C2+D6</f>
-        <v>262.34879999999998</v>
+        <v>263.42399999999998</v>
       </c>
       <c r="G6" s="8">
         <f>F6</f>
-        <v>262.34879999999998</v>
+        <v>263.42399999999998</v>
       </c>
       <c r="H6" s="3">
         <f>E7</f>
-        <v>299.8272</v>
+        <v>301.05599999999998</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>281.08799999999997</v>
+        <v>282.24</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -991,15 +991,15 @@
       </c>
       <c r="D7" s="11">
         <f>C2*0.4</f>
-        <v>74.956800000000001</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="E7" s="9">
         <f>C2*2-D7</f>
-        <v>299.8272</v>
+        <v>301.05599999999998</v>
       </c>
       <c r="F7" s="4">
         <f>C2*2-C7</f>
-        <v>374.78399999999999</v>
+        <v>376.32</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>

--- a/Stuff/Info/DAC_freq.xlsx
+++ b/Stuff/Info/DAC_freq.xlsx
@@ -299,131 +299,131 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,400 +500,400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="11.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <f aca="false">48000*2300/1000000</f>
-        <v>110.4</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="n">
+      <c r="C2" s="4" t="n">
+        <f aca="false">48000*2272/1000000</f>
+        <v>109.056</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="n">
         <f aca="false">C2/2</f>
-        <v>55.2</v>
-      </c>
-      <c r="L2" s="4" t="n">
+        <v>54.528</v>
+      </c>
+      <c r="L2" s="5" t="n">
         <f aca="false">K2*2</f>
-        <v>110.4</v>
-      </c>
-      <c r="M2" s="4" t="n">
+        <v>109.056</v>
+      </c>
+      <c r="M2" s="5" t="n">
         <f aca="false">K2*3</f>
-        <v>165.6</v>
-      </c>
-      <c r="N2" s="4" t="n">
+        <v>163.584</v>
+      </c>
+      <c r="N2" s="5" t="n">
         <f aca="false">K2*4</f>
-        <v>220.8</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+        <v>218.112</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="16" t="n">
         <f aca="false">C2*0.4</f>
-        <v>44.16</v>
-      </c>
-      <c r="E4" s="16" t="n">
+        <v>43.6224</v>
+      </c>
+      <c r="E4" s="17" t="n">
         <f aca="false">C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="18" t="n">
         <f aca="false">D4</f>
-        <v>44.16</v>
-      </c>
-      <c r="G4" s="14" t="n">
+        <v>43.6224</v>
+      </c>
+      <c r="G4" s="15" t="n">
         <f aca="false">F4</f>
-        <v>44.16</v>
-      </c>
-      <c r="H4" s="18" t="n">
+        <v>43.6224</v>
+      </c>
+      <c r="H4" s="19" t="n">
         <f aca="false">E5</f>
-        <v>66.24</v>
-      </c>
-      <c r="I4" s="19" t="n">
+        <v>65.4336</v>
+      </c>
+      <c r="I4" s="20" t="n">
         <f aca="false">(G4+H4)/2</f>
-        <v>55.2</v>
-      </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+        <v>54.528</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="15" t="n">
         <f aca="false">C2*0.2</f>
-        <v>22.08</v>
-      </c>
-      <c r="D5" s="15" t="n">
+        <v>21.8112</v>
+      </c>
+      <c r="D5" s="16" t="n">
         <f aca="false">C2*0.4</f>
-        <v>44.16</v>
-      </c>
-      <c r="E5" s="16" t="n">
+        <v>43.6224</v>
+      </c>
+      <c r="E5" s="17" t="n">
         <f aca="false">C2-D5</f>
-        <v>66.24</v>
-      </c>
-      <c r="F5" s="17" t="n">
+        <v>65.4336</v>
+      </c>
+      <c r="F5" s="18" t="n">
         <f aca="false">C2-C5</f>
-        <v>88.32</v>
-      </c>
-      <c r="G5" s="14" t="n">
+        <v>87.2448</v>
+      </c>
+      <c r="G5" s="15" t="n">
         <f aca="false">F5</f>
-        <v>88.32</v>
-      </c>
-      <c r="H5" s="18" t="n">
+        <v>87.2448</v>
+      </c>
+      <c r="H5" s="19" t="n">
         <f aca="false">E6</f>
-        <v>132.48</v>
-      </c>
-      <c r="I5" s="19" t="n">
+        <v>130.8672</v>
+      </c>
+      <c r="I5" s="20" t="n">
         <f aca="false">(G5+H5)/2</f>
-        <v>110.4</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+        <v>109.056</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="15" t="n">
         <f aca="false">C2*0.2</f>
-        <v>22.08</v>
-      </c>
-      <c r="D6" s="15" t="n">
+        <v>21.8112</v>
+      </c>
+      <c r="D6" s="16" t="n">
         <f aca="false">C2*0.4</f>
-        <v>44.16</v>
-      </c>
-      <c r="E6" s="14" t="n">
+        <v>43.6224</v>
+      </c>
+      <c r="E6" s="15" t="n">
         <f aca="false">C2+C6</f>
-        <v>132.48</v>
-      </c>
-      <c r="F6" s="18" t="n">
+        <v>130.8672</v>
+      </c>
+      <c r="F6" s="19" t="n">
         <f aca="false">C2+D6</f>
-        <v>154.56</v>
-      </c>
-      <c r="G6" s="14" t="n">
+        <v>152.6784</v>
+      </c>
+      <c r="G6" s="15" t="n">
         <f aca="false">F6</f>
-        <v>154.56</v>
-      </c>
-      <c r="H6" s="18" t="n">
+        <v>152.6784</v>
+      </c>
+      <c r="H6" s="19" t="n">
         <f aca="false">E7</f>
-        <v>176.64</v>
-      </c>
-      <c r="I6" s="19" t="n">
+        <v>174.4896</v>
+      </c>
+      <c r="I6" s="20" t="n">
         <f aca="false">(G6+H6)/2</f>
-        <v>165.6</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+        <v>163.584</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="24" t="n">
         <f aca="false">C2*0.4</f>
-        <v>44.16</v>
-      </c>
-      <c r="E7" s="22" t="n">
+        <v>43.6224</v>
+      </c>
+      <c r="E7" s="23" t="n">
         <f aca="false">C2*2-D7</f>
-        <v>176.64</v>
-      </c>
-      <c r="F7" s="24" t="n">
+        <v>174.4896</v>
+      </c>
+      <c r="F7" s="25" t="n">
         <f aca="false">C2*2-C7</f>
-        <v>220.8</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+        <v>218.112</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="30" t="n">
+      <c r="D12" s="31" t="n">
         <v>0.14</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="31" t="n">
         <v>0.32</v>
       </c>
-      <c r="D13" s="30" t="n">
+      <c r="D13" s="31" t="n">
         <v>0.58</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="30" t="n">
+      <c r="C14" s="31" t="n">
         <v>1.33</v>
       </c>
-      <c r="D14" s="30" t="n">
+      <c r="D14" s="31" t="n">
         <v>1.83</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="30" t="n">
+      <c r="C15" s="31" t="n">
         <v>2.42</v>
       </c>
-      <c r="D15" s="30" t="n">
+      <c r="D15" s="31" t="n">
         <v>3.92</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="32"/>

--- a/Stuff/Info/DAC_freq.xlsx
+++ b/Stuff/Info/DAC_freq.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">MODE A</t>
+  </si>
   <si>
     <t xml:space="preserve">1n</t>
   </si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">4 nyquist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODE B</t>
   </si>
   <si>
     <t xml:space="preserve">Attenuation, db</t>
@@ -116,12 +122,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFAFD095"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -143,8 +155,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -294,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,15 +315,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,19 +343,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,7 +371,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,11 +383,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,7 +403,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,15 +427,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,10 +449,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -452,7 +476,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -480,7 +504,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -504,10 +528,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:V21"/>
+  <dimension ref="B1:V31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,394 +546,574 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <f aca="false">48000*2240/1000000</f>
+        <v>107.52</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="n">
+        <f aca="false">C3/2</f>
+        <v>53.76</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <f aca="false">K3*2</f>
+        <v>107.52</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <f aca="false">K3*3</f>
+        <v>161.28</v>
+      </c>
+      <c r="N3" s="7" t="n">
+        <f aca="false">K3*4</f>
+        <v>215.04</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <f aca="false">C3*0.4</f>
+        <v>43.008</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <f aca="false">C5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="20" t="n">
+        <f aca="false">D5</f>
+        <v>43.008</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <f aca="false">F5</f>
+        <v>43.008</v>
+      </c>
+      <c r="H5" s="21" t="n">
+        <f aca="false">E6</f>
+        <v>64.512</v>
+      </c>
+      <c r="I5" s="22" t="n">
+        <f aca="false">(G5+H5)/2</f>
+        <v>53.76</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="17" t="n">
+        <f aca="false">C3*0.2</f>
+        <v>21.504</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <f aca="false">C3*0.4</f>
+        <v>43.008</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <f aca="false">C3-D6</f>
+        <v>64.512</v>
+      </c>
+      <c r="F6" s="20" t="n">
+        <f aca="false">C3-C6</f>
+        <v>86.016</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <f aca="false">F6</f>
+        <v>86.016</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <f aca="false">E7</f>
+        <v>129.024</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <f aca="false">(G6+H6)/2</f>
+        <v>107.52</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="17" t="n">
+        <f aca="false">C3*0.2</f>
+        <v>21.504</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <f aca="false">C3*0.4</f>
+        <v>43.008</v>
+      </c>
+      <c r="E7" s="24" t="n">
+        <f aca="false">C3+C7</f>
+        <v>129.024</v>
+      </c>
+      <c r="F7" s="20" t="n">
+        <f aca="false">C3+D7</f>
+        <v>150.528</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <f aca="false">F7</f>
+        <v>150.528</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <f aca="false">E8</f>
+        <v>172.032</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <f aca="false">(G7+H7)/2</f>
+        <v>161.28</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27" t="n">
+        <f aca="false">C3*0.4</f>
+        <v>43.008</v>
+      </c>
+      <c r="E8" s="26" t="n">
+        <f aca="false">C3*2-D8</f>
+        <v>172.032</v>
+      </c>
+      <c r="F8" s="28" t="n">
+        <f aca="false">C3*2-C8</f>
+        <v>215.04</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <f aca="false">48000*2272/1000000</f>
-        <v>109.056</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="n">
-        <f aca="false">C2/2</f>
-        <v>54.528</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <f aca="false">K2*2</f>
-        <v>109.056</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <f aca="false">K2*3</f>
-        <v>163.584</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <f aca="false">K2*4</f>
-        <v>218.112</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="C12" s="6" t="n">
+        <f aca="false">48000*1600/1000000</f>
+        <v>76.8</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="n">
+        <f aca="false">C12/2</f>
+        <v>38.4</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">K12*2</f>
+        <v>76.8</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <f aca="false">K12*3</f>
+        <v>115.2</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <f aca="false">K12*4</f>
+        <v>153.6</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="14" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="16" t="n">
-        <f aca="false">C2*0.4</f>
-        <v>43.6224</v>
-      </c>
-      <c r="E4" s="17" t="n">
-        <f aca="false">C4</f>
+      <c r="D14" s="18" t="n">
+        <f aca="false">C12*0.4</f>
+        <v>30.72</v>
+      </c>
+      <c r="E14" s="31" t="n">
+        <f aca="false">C14</f>
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="n">
-        <f aca="false">D4</f>
-        <v>43.6224</v>
-      </c>
-      <c r="G4" s="15" t="n">
-        <f aca="false">F4</f>
-        <v>43.6224</v>
-      </c>
-      <c r="H4" s="19" t="n">
-        <f aca="false">E5</f>
-        <v>65.4336</v>
-      </c>
-      <c r="I4" s="20" t="n">
-        <f aca="false">(G4+H4)/2</f>
-        <v>54.528</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14" t="s">
+      <c r="F14" s="32" t="n">
+        <f aca="false">D14</f>
+        <v>30.72</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <f aca="false">F14</f>
+        <v>30.72</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <f aca="false">E15</f>
+        <v>46.08</v>
+      </c>
+      <c r="I14" s="22" t="n">
+        <f aca="false">(G14+H14)/2</f>
+        <v>38.4</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="17" t="n">
+        <f aca="false">C12*0.2</f>
+        <v>15.36</v>
+      </c>
+      <c r="D15" s="18" t="n">
+        <f aca="false">C12*0.4</f>
+        <v>30.72</v>
+      </c>
+      <c r="E15" s="19" t="n">
+        <f aca="false">C12-D15</f>
+        <v>46.08</v>
+      </c>
+      <c r="F15" s="20" t="n">
+        <f aca="false">C12-C15</f>
+        <v>61.44</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <f aca="false">F15</f>
+        <v>61.44</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <f aca="false">E16</f>
+        <v>92.16</v>
+      </c>
+      <c r="I15" s="22" t="n">
+        <f aca="false">(G15+H15)/2</f>
+        <v>76.8</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17" t="n">
+        <f aca="false">C12*0.2</f>
+        <v>15.36</v>
+      </c>
+      <c r="D16" s="18" t="n">
+        <f aca="false">C12*0.4</f>
+        <v>30.72</v>
+      </c>
+      <c r="E16" s="24" t="n">
+        <f aca="false">C12+C16</f>
+        <v>92.16</v>
+      </c>
+      <c r="F16" s="20" t="n">
+        <f aca="false">C12+D16</f>
+        <v>107.52</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <f aca="false">F16</f>
+        <v>107.52</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <f aca="false">E17</f>
+        <v>122.88</v>
+      </c>
+      <c r="I16" s="22" t="n">
+        <f aca="false">(G16+H16)/2</f>
+        <v>115.2</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <f aca="false">C12*0.4</f>
+        <v>30.72</v>
+      </c>
+      <c r="E17" s="26" t="n">
+        <f aca="false">C12*2-D17</f>
+        <v>122.88</v>
+      </c>
+      <c r="F17" s="28" t="n">
+        <f aca="false">C12*2-C17</f>
+        <v>153.6</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="n">
-        <f aca="false">C2*0.2</f>
-        <v>21.8112</v>
-      </c>
-      <c r="D5" s="16" t="n">
-        <f aca="false">C2*0.4</f>
-        <v>43.6224</v>
-      </c>
-      <c r="E5" s="17" t="n">
-        <f aca="false">C2-D5</f>
-        <v>65.4336</v>
-      </c>
-      <c r="F5" s="18" t="n">
-        <f aca="false">C2-C5</f>
-        <v>87.2448</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <f aca="false">F5</f>
-        <v>87.2448</v>
-      </c>
-      <c r="H5" s="19" t="n">
-        <f aca="false">E6</f>
-        <v>130.8672</v>
-      </c>
-      <c r="I5" s="20" t="n">
-        <f aca="false">(G5+H5)/2</f>
-        <v>109.056</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14" t="s">
+      <c r="C21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="35" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="n">
-        <f aca="false">C2*0.2</f>
-        <v>21.8112</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <f aca="false">C2*0.4</f>
-        <v>43.6224</v>
-      </c>
-      <c r="E6" s="15" t="n">
-        <f aca="false">C2+C6</f>
-        <v>130.8672</v>
-      </c>
-      <c r="F6" s="19" t="n">
-        <f aca="false">C2+D6</f>
-        <v>152.6784</v>
-      </c>
-      <c r="G6" s="15" t="n">
-        <f aca="false">F6</f>
-        <v>152.6784</v>
-      </c>
-      <c r="H6" s="19" t="n">
-        <f aca="false">E7</f>
-        <v>174.4896</v>
-      </c>
-      <c r="I6" s="20" t="n">
-        <f aca="false">(G6+H6)/2</f>
-        <v>163.584</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="22" t="s">
+      <c r="C22" s="35" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D22" s="35" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24" t="n">
-        <f aca="false">C2*0.4</f>
-        <v>43.6224</v>
-      </c>
-      <c r="E7" s="23" t="n">
-        <f aca="false">C2*2-D7</f>
-        <v>174.4896</v>
-      </c>
-      <c r="F7" s="25" t="n">
-        <f aca="false">C2*2-C7</f>
-        <v>218.112</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="27" t="s">
+      <c r="C23" s="35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D23" s="35" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="31" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="31" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D13" s="31" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="D14" s="31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="31" t="n">
+      <c r="C24" s="35" t="n">
         <v>2.42</v>
       </c>
-      <c r="D15" s="31" t="n">
+      <c r="D24" s="35" t="n">
         <v>3.92</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="32"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="32"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="32"/>
-    </row>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+  <mergeCells count="8">
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
